--- a/MoPanda/data/core/Rel-k/MICP - 4V.xlsx
+++ b/MoPanda/data/core/Rel-k/MICP - 4V.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brightenergy.sharepoint.com/sites/CCSCorporate/Shared Documents/Project Development/SUBSURFACE GROUP/_Team Members Folders/Fan/Projects/Denova1/EDA/MoPanda/MoPanda/data/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brightenergy.sharepoint.com/sites/CCSCorporate/Shared Documents/Project Development/SUBSURFACE GROUP/_Team Members Folders/Fan/Projects/Denova1/EDA/MoPanda/MoPanda/data/core/Rel-k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_CE7D7E60209DA02ADAC33F86B81B07920A903AB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{468C9E6F-FFE2-47AC-9AC7-F06091E5AA7E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_811BA4D56589CA5B1830C9C3309FB6AA0FC1851F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE01F86-B7D4-4A8C-AB2B-6905E4F7B4A5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Pseudo Wetting-phase Saturation</t>
   </si>
@@ -58,19 +58,16 @@
     <t>Sw*imb</t>
   </si>
   <si>
-    <t>Sw*imb.1</t>
+    <t>Capillary Pressure_Reservoir (psi)</t>
   </si>
   <si>
-    <t>Unnamed: 8</t>
+    <t>Capillary Pressure_Reservoir (MPa)</t>
   </si>
   <si>
-    <t>Unnamed: 9</t>
+    <t>Normalized Wetting-phase Saturation</t>
   </si>
   <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
+    <t>Normalized Wetting-phase Saturation_imbibition</t>
   </si>
   <si>
     <t>Sw_d</t>
@@ -91,7 +88,13 @@
     <t>krg_i</t>
   </si>
   <si>
-    <t>lambda</t>
+    <t>lambda_d</t>
+  </si>
+  <si>
+    <t>lambda_i</t>
+  </si>
+  <si>
+    <t>Interpolated_Capillary_Pressure</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-30C6-43F1-8D59-C9575DD39CF9}"/>
+              <c16:uniqueId val="{00000000-932B-499C-8B55-5A18E338394E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -995,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -1048,27 +1051,27 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f>(F2-$A$21)/(1-$A$21-0.3)</f>
+        <f t="shared" ref="G2:G38" si="1">(F2-$A$21)/(1-$A$21-0.3)</f>
         <v>1.6763555090947355</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H38" si="1">(F2-$A$21)/(1-$A$21)</f>
+        <f t="shared" ref="H2:H38" si="2">(F2-$A$21)/(1-$A$21)</f>
         <v>1</v>
       </c>
       <c r="I2">
-        <f>G2^3.18</f>
+        <f t="shared" ref="I2:I38" si="3">G2^3.18</f>
         <v>5.1699254515287816</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J38" si="2">(1-G2)^2*(1-G2^3.18)</f>
+        <f t="shared" ref="J2:J38" si="4">(1-G2)^2*(1-G2^3.18)</f>
         <v>-1.9075606477240703</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K38" si="3">A2^4</f>
+        <f t="shared" ref="K2:K38" si="5">A2^4</f>
         <v>1</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L38" si="4">H2^4</f>
+        <f t="shared" ref="L2:L38" si="6">H2^4</f>
         <v>1</v>
       </c>
       <c r="O2">
@@ -1097,27 +1100,27 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G38" si="5">(F3-$A$21)/(1-$A$21-0.3)</f>
+        <f t="shared" si="1"/>
         <v>1.6763555090947355</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I2:I38" si="6">G3^3.18</f>
+        <f t="shared" si="3"/>
         <v>5.1699254515287816</v>
       </c>
       <c r="J3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.9075606477240703</v>
       </c>
       <c r="K3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1142,27 +1145,27 @@
         <v>1</v>
       </c>
       <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1187,27 +1190,27 @@
         <v>1</v>
       </c>
       <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1232,27 +1235,27 @@
         <v>1</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1277,27 +1280,27 @@
         <v>1</v>
       </c>
       <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1322,27 +1325,27 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1367,27 +1370,27 @@
         <v>1</v>
       </c>
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1412,27 +1415,27 @@
         <v>1</v>
       </c>
       <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1457,27 +1460,27 @@
         <v>1</v>
       </c>
       <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1502,27 +1505,27 @@
         <v>1</v>
       </c>
       <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1547,27 +1550,27 @@
         <v>1</v>
       </c>
       <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1592,27 +1595,27 @@
         <v>1</v>
       </c>
       <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1637,27 +1640,27 @@
         <v>1</v>
       </c>
       <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1682,27 +1685,27 @@
         <v>1</v>
       </c>
       <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.6763555090947355</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>5.1699254515287816</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>-1.9075606477240703</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="5"/>
-        <v>1.6763555090947355</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="6"/>
-        <v>5.1699254515287816</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>-1.9075606477240703</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1727,27 +1730,27 @@
         <v>0.96885270674410529</v>
       </c>
       <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.6061333644713565</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.95811023124724881</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>4.5121704838472541</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>-1.2903632015708724</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="5"/>
-        <v>1.6061333644713565</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>0.95811023124724881</v>
-      </c>
-      <c r="I17">
+        <v>0.87974771780153771</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="6"/>
-        <v>4.5121704838472541</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>-1.2903632015708724</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>0.87974771780153771</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="4"/>
         <v>0.84267849575941078</v>
       </c>
     </row>
@@ -1772,27 +1775,27 @@
         <v>0.81290326751929243</v>
       </c>
       <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.2545424899382338</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.74837496171424345</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>2.056759407327446</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>-6.8469427846068687E-2</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="5"/>
-        <v>1.2545424899382338</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>0.74837496171424345</v>
-      </c>
-      <c r="I18">
+        <v>0.43184952257616582</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="6"/>
-        <v>2.056759407327446</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>-6.8469427846068687E-2</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>0.43184952257616582</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="4"/>
         <v>0.31367289755512939</v>
       </c>
     </row>
@@ -1817,27 +1820,27 @@
         <v>0.49530736278183635</v>
       </c>
       <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.53851669048788309</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.32124253332080649</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.13970545195725903</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.1832142156314516</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="5"/>
-        <v>0.53851669048788309</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>0.32124253332080649</v>
-      </c>
-      <c r="I19">
+        <v>5.7285470674187065E-2</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="6"/>
-        <v>0.13970545195725903</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>0.1832142156314516</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>5.7285470674187065E-2</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="4"/>
         <v>1.0649572350709695E-2</v>
       </c>
     </row>
@@ -1862,27 +1865,27 @@
         <v>0.33291549196050496</v>
       </c>
       <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.17240123561385604</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.10284288426800114</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>3.7342070085157708E-3</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.68236208281414512</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="5"/>
-        <v>0.17240123561385604</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>0.10284288426800114</v>
-      </c>
-      <c r="I20">
+        <v>1.1140136078038994E-2</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="6"/>
-        <v>3.7342070085157708E-3</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>0.68236208281414512</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>1.1140136078038994E-2</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="4"/>
         <v>1.1186571231424052E-4</v>
       </c>
     </row>
@@ -1907,27 +1910,27 @@
         <v>0.26529658181522919</v>
       </c>
       <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.9953160961392137E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.1902702531259156E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>3.9267859199084611E-6</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.96048803506386426</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="5"/>
-        <v>1.9953160961392137E-2</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>1.1902702531259156E-2</v>
-      </c>
-      <c r="I21">
+        <v>4.3249952556791574E-3</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="6"/>
-        <v>3.9267859199084611E-6</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>0.96048803506386426</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>4.3249952556791574E-3</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="4"/>
         <v>2.007161508607687E-8</v>
       </c>
     </row>
@@ -1952,27 +1955,27 @@
         <v>0.22483172220073372</v>
       </c>
       <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-7.1275608121971493E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>-4.2518193626160897E-2</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J22" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="5"/>
-        <v>-7.1275608121971493E-2</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>-4.2518193626160897E-2</v>
-      </c>
-      <c r="I22" t="e">
+        <v>2.1564558571947347E-3</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J22" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>2.1564558571947347E-3</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="4"/>
         <v>3.2681292311564761E-6</v>
       </c>
     </row>
@@ -1997,27 +2000,27 @@
         <v>0.19261422379037335</v>
       </c>
       <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-0.14391054991896521</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>-8.5847273527725462E-2</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J23" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="5"/>
-        <v>-0.14391054991896521</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>-8.5847273527725462E-2</v>
-      </c>
-      <c r="I23" t="e">
+        <v>1.1187795559048212E-3</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J23" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
-        <v>1.1187795559048212E-3</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
         <v>5.4313279505737274E-5</v>
       </c>
     </row>
@@ -2042,27 +2045,27 @@
         <v>0.16515673360343525</v>
       </c>
       <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-0.20581396576513264</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>-0.12277465289941761</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J24" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="5"/>
-        <v>-0.20581396576513264</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>-0.12277465289941761</v>
-      </c>
-      <c r="I24" t="e">
+        <v>5.7869373524706725E-4</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J24" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>5.7869373524706725E-4</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="4"/>
         <v>2.2721388106349222E-4</v>
       </c>
     </row>
@@ -2087,27 +2090,27 @@
         <v>0.14175597921328809</v>
       </c>
       <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-0.25857139626096215</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>-0.15424615772617092</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J25" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="5"/>
-        <v>-0.25857139626096215</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>-0.15424615772617092</v>
-      </c>
-      <c r="I25" t="e">
+        <v>2.982722195953555E-4</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J25" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="3"/>
-        <v>2.982722195953555E-4</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="4"/>
         <v>5.6605341942876533E-4</v>
       </c>
     </row>
@@ -2132,27 +2135,27 @@
         <v>0.12181259391842629</v>
       </c>
       <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-0.30353412464155782</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>-0.18106787193694501</v>
+      </c>
+      <c r="I26" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J26" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="5"/>
-        <v>-0.30353412464155782</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>-0.18106787193694501</v>
-      </c>
-      <c r="I26" t="e">
+        <v>1.5309050967970855E-4</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J26" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
-        <v>1.5309050967970855E-4</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="4"/>
         <v>1.0748938787562962E-3</v>
       </c>
     </row>
@@ -2177,27 +2180,27 @@
         <v>0.10481576508171271</v>
       </c>
       <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-0.34185378737772953</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>-0.20392678374191475</v>
+      </c>
+      <c r="I27" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J27" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="5"/>
-        <v>-0.34185378737772953</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>-0.20392678374191475</v>
-      </c>
-      <c r="I27" t="e">
+        <v>7.8182266296122053E-5</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J27" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
-        <v>7.8182266296122053E-5</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="4"/>
         <v>1.7294064684833205E-3</v>
       </c>
     </row>
@@ -2222,27 +2225,27 @@
         <v>9.0330150616901986E-2</v>
       </c>
       <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-0.3745118711973866</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>-0.22340838155483514</v>
+      </c>
+      <c r="I28" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J28" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="5"/>
-        <v>-0.3745118711973866</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>-0.22340838155483514</v>
-      </c>
-      <c r="I28" t="e">
+        <v>3.9689304620082792E-5</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J28" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="3"/>
-        <v>3.9689304620082792E-5</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="4"/>
         <v>2.4911383617071611E-3</v>
       </c>
     </row>
@@ -2267,27 +2270,27 @@
         <v>7.7984728512639309E-2</v>
       </c>
       <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-0.40234485203844644</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>-0.2400116501873284</v>
+      </c>
+      <c r="I29" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J29" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="5"/>
-        <v>-0.40234485203844644</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>-0.2400116501873284</v>
-      </c>
-      <c r="I29" t="e">
+        <v>2.0004815559754303E-5</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J29" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="3"/>
-        <v>2.0004815559754303E-5</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="4"/>
         <v>3.3184042556672331E-3</v>
       </c>
     </row>
@@ -2312,27 +2315,27 @@
         <v>6.7463293795274784E-2</v>
       </c>
       <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-0.4260656198206802</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>-0.25416185141465841</v>
+      </c>
+      <c r="I30" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J30" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="5"/>
-        <v>-0.4260656198206802</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>-0.25416185141465841</v>
-      </c>
-      <c r="I30" t="e">
+        <v>9.9969746119219357E-6</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J30" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="3"/>
-        <v>9.9969746119219357E-6</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="4"/>
         <v>4.172933478590885E-3</v>
       </c>
     </row>
@@ -2357,27 +2360,27 @@
         <v>5.8496359527912607E-2</v>
       </c>
       <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-0.4462817377920828</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>-0.26622141626335788</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J31" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="5"/>
-        <v>-0.4462817377920828</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>-0.26622141626335788</v>
-      </c>
-      <c r="I31" t="e">
+        <v>4.9443402231595778E-6</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J31" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="3"/>
-        <v>4.9443402231595778E-6</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="4"/>
         <v>5.0231015474926071E-3</v>
       </c>
     </row>
@@ -2402,27 +2405,27 @@
         <v>5.0854254404883115E-2</v>
       </c>
       <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-0.46351100412888974</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>-0.27649922800635213</v>
+      </c>
+      <c r="I32" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J32" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="5"/>
-        <v>-0.46351100412888974</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>-0.27649922800635213</v>
-      </c>
-      <c r="I32" t="e">
+        <v>2.4149059118031866E-6</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J32" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="3"/>
-        <v>2.4149059118031866E-6</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="4"/>
         <v>5.8448812534954708E-3</v>
       </c>
     </row>
@@ -2447,27 +2450,27 @@
         <v>4.4341240149386042E-2</v>
       </c>
       <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-0.47819471437061639</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>-0.28525853363219528</v>
+      </c>
+      <c r="I33" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J33" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="5"/>
-        <v>-0.47819471437061639</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>-0.28525853363219528</v>
-      </c>
-      <c r="I33" t="e">
+        <v>1.1615722368948836E-6</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J33" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="3"/>
-        <v>1.1615722368948836E-6</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="4"/>
         <v>6.6214725284756276E-3</v>
       </c>
     </row>
@@ -2492,27 +2495,27 @@
         <v>3.8790498042413628E-2</v>
       </c>
       <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-0.49070896438266609</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>-0.29272368642595298</v>
+      </c>
+      <c r="I34" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J34" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="5"/>
-        <v>-0.49070896438266609</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>-0.29272368642595298</v>
-      </c>
-      <c r="I34" t="e">
+        <v>5.4830466430053659E-7</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J34" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="3"/>
-        <v>5.4830466430053659E-7</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="4"/>
         <v>7.3422888053017183E-3</v>
       </c>
     </row>
@@ -2537,27 +2540,27 @@
         <v>3.4059856172236377E-2</v>
       </c>
       <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-0.50137428335082812</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>-0.29908589236037403</v>
+      </c>
+      <c r="I35" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J35" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="5"/>
-        <v>-0.50137428335082812</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>-0.29908589236037403</v>
-      </c>
-      <c r="I35" t="e">
+        <v>2.5284654918901129E-7</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J35" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="3"/>
-        <v>2.5284654918901129E-7</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="4"/>
         <v>8.0017266791320048E-3</v>
       </c>
     </row>
@@ -2582,27 +2585,27 @@
         <v>3.0028147965911557E-2</v>
       </c>
       <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-0.51046384353886232</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>-0.30450810748044888</v>
+      </c>
+      <c r="I36" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="5"/>
-        <v>-0.51046384353886232</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>-0.30450810748044888</v>
-      </c>
-      <c r="I36" t="e">
+        <v>1.1322853987702132E-7</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J36" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="3"/>
-        <v>1.1322853987702132E-7</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="4"/>
         <v>8.5979604008648135E-3</v>
       </c>
     </row>
@@ -2627,27 +2630,27 @@
         <v>2.6592108733388124E-2</v>
       </c>
       <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-0.51821045708680513</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>-0.30912921171872959</v>
+      </c>
+      <c r="I37" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J37" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="5"/>
-        <v>-0.51821045708680513</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="1"/>
-        <v>-0.30912921171872959</v>
-      </c>
-      <c r="I37" t="e">
+        <v>4.8844775274402063E-8</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J37" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="3"/>
-        <v>4.8844775274402063E-8</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="4"/>
         <v>9.1318797868286759E-3</v>
       </c>
     </row>
@@ -2672,27 +2675,27 @@
         <v>2.3663730734970637E-2</v>
       </c>
       <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-0.52481253905994352</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>-0.31306756604591135</v>
+      </c>
+      <c r="I38" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J38" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="5"/>
-        <v>-0.52481253905994352</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>-0.31306756604591135</v>
-      </c>
-      <c r="I38" t="e">
+        <v>2.0071615086076761E-8</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J38" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="3"/>
-        <v>2.0071615086076761E-8</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="4"/>
         <v>9.6062151060531328E-3</v>
       </c>
     </row>
@@ -2704,13 +2707,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2727,28 +2732,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2765,28 +2761,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.13472222222222219</v>
       </c>
       <c r="G2">
-        <v>0.60623672787486027</v>
+        <v>9.2887738888888902E-4</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J2">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2803,28 +2790,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.26944444444444449</v>
       </c>
       <c r="G3">
-        <v>0.60623672787486027</v>
+        <v>1.857754777777778E-3</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J3">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2841,28 +2819,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.40347222222222218</v>
       </c>
       <c r="G4">
-        <v>0.60623672787486027</v>
+        <v>2.781844138888889E-3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J4">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2879,28 +2848,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.53819444444444453</v>
       </c>
       <c r="G5">
-        <v>0.60623672787486027</v>
+        <v>3.7107215277777778E-3</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J5">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2917,28 +2877,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.67291666666666672</v>
       </c>
       <c r="G6">
-        <v>0.60623672787486027</v>
+        <v>4.639598916666667E-3</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J6">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2955,28 +2906,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.94444444444444464</v>
       </c>
       <c r="G7">
-        <v>0.60623672787486027</v>
+        <v>6.511717777777779E-3</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J7">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2993,28 +2935,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>1.208333333333333</v>
       </c>
       <c r="G8">
-        <v>0.60623672787486027</v>
+        <v>8.3311683333333331E-3</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J8">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3031,28 +2964,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>1.618055555555556</v>
       </c>
       <c r="G9">
-        <v>0.60623672787486027</v>
+        <v>1.115610472222222E-2</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J9">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3069,28 +2993,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2.020833333333333</v>
       </c>
       <c r="G10">
-        <v>0.60623672787486027</v>
+        <v>1.3933160833333329E-2</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J10">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3107,28 +3022,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2.5555555555555558</v>
       </c>
       <c r="G11">
-        <v>0.60623672787486027</v>
+        <v>1.761994222222223E-2</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J11">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3145,28 +3051,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="G12">
-        <v>0.60623672787486027</v>
+        <v>2.2264329166666669E-2</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J12">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3183,28 +3080,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4.0347222222222223</v>
       </c>
       <c r="G13">
-        <v>0.60623672787486027</v>
+        <v>2.7818441388888889E-2</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J13">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3221,28 +3109,19 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4.8472222222222232</v>
       </c>
       <c r="G14">
-        <v>0.60623672787486027</v>
+        <v>3.3420433888888892E-2</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J14">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3259,28 +3138,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>6.4583333333333348</v>
       </c>
       <c r="G15">
-        <v>0.60623672787486027</v>
+        <v>4.4528658333333353E-2</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J15">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3297,28 +3167,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>8.4722222222222232</v>
       </c>
       <c r="G16">
-        <v>0.60623672787486027</v>
+        <v>5.8413938888888878E-2</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.20361151505710659</v>
-      </c>
-      <c r="J16">
-        <v>0.1234796479236351</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5327509681463249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.96847750384938169</v>
       </c>
@@ -3335,28 +3196,19 @@
         <v>1.0961227180499531E-4</v>
       </c>
       <c r="F17">
-        <v>0.96885270674410529</v>
+        <v>10.486111111111111</v>
       </c>
       <c r="G17">
-        <v>0.56366548469402777</v>
+        <v>7.2299219444444451E-2</v>
       </c>
       <c r="H17">
-        <v>0.95811023124724881</v>
+        <v>0.96809778122926649</v>
       </c>
       <c r="I17">
-        <v>0.1615281377579067</v>
-      </c>
-      <c r="J17">
-        <v>0.15963482096777409</v>
-      </c>
-      <c r="K17">
-        <v>0.87974771780153771</v>
-      </c>
-      <c r="L17">
-        <v>0.84267849575941078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.4838528114394669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.81064948466107256</v>
       </c>
@@ -3373,28 +3225,19 @@
         <v>1.9186929730303979E-2</v>
       </c>
       <c r="F18">
-        <v>0.81290326751929243</v>
+        <v>13.75</v>
       </c>
       <c r="G18">
-        <v>0.35051818336640689</v>
+        <v>9.4802950000000011E-2</v>
       </c>
       <c r="H18">
-        <v>0.74837496171424345</v>
+        <v>0.80836855254639772</v>
       </c>
       <c r="I18">
-        <v>3.5659853612082397E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.40678435425728482</v>
-      </c>
-      <c r="K18">
-        <v>0.43184952257616582</v>
-      </c>
-      <c r="L18">
-        <v>0.31367289755512939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.239027681534534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.4892277931423753</v>
       </c>
@@ -3411,22 +3254,19 @@
         <v>0.24168268071928731</v>
       </c>
       <c r="F19">
-        <v>0.49530736278183629</v>
+        <v>17.5</v>
       </c>
       <c r="G19">
-        <v>-8.3562954366354608E-2</v>
+        <v>0.1206583</v>
       </c>
       <c r="H19">
-        <v>0.32124253332080649</v>
-      </c>
-      <c r="K19">
-        <v>5.7285470674187072E-2</v>
-      </c>
-      <c r="L19">
-        <v>1.06495723507097E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.48307498849951741</v>
+      </c>
+      <c r="I19">
+        <v>0.74043365630990987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.32487973628872441</v>
       </c>
@@ -3443,22 +3283,19 @@
         <v>0.44825461189029669</v>
       </c>
       <c r="F20">
-        <v>0.33291549196050502</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="G20">
-        <v>-0.30551558975360082</v>
+        <v>0.1532168888888889</v>
       </c>
       <c r="H20">
-        <v>0.1028428842680011</v>
-      </c>
-      <c r="K20">
-        <v>1.114013607803899E-2</v>
-      </c>
-      <c r="L20">
-        <v>1.118657123142405E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.31674718123330009</v>
+      </c>
+      <c r="I20">
+        <v>0.4854945486929601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.25644628310704021</v>
       </c>
@@ -3475,22 +3312,19 @@
         <v>0.54901778292156689</v>
       </c>
       <c r="F21">
-        <v>0.26529658181522919</v>
+        <v>28.263888888888889</v>
       </c>
       <c r="G21">
-        <v>-0.39793521170173302</v>
+        <v>0.1948727305555556</v>
       </c>
       <c r="H21">
-        <v>1.1902702531259159E-2</v>
-      </c>
-      <c r="K21">
-        <v>4.3249952556791574E-3</v>
-      </c>
-      <c r="L21">
-        <v>2.007161508607687E-8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2474893729617931</v>
+      </c>
+      <c r="I21">
+        <v>0.3793395760131153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.21549398041563891</v>
       </c>
@@ -3507,22 +3341,19 @@
         <v>0.61317573592241181</v>
       </c>
       <c r="F22">
-        <v>0.22483172220073369</v>
+        <v>36.31944444444445</v>
       </c>
       <c r="G22">
-        <v>-0.45324144215888251</v>
+        <v>0.25041385277777778</v>
       </c>
       <c r="H22">
-        <v>-4.2518193626160897E-2</v>
-      </c>
-      <c r="K22">
-        <v>2.1564558571947352E-3</v>
-      </c>
-      <c r="L22">
-        <v>3.2681292311564761E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2060437554134901</v>
+      </c>
+      <c r="I22">
+        <v>0.31581376559053143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.18288838732992399</v>
       </c>
@@ -3539,22 +3370,19 @@
         <v>0.66631572099158232</v>
       </c>
       <c r="F23">
-        <v>0.19261422379037341</v>
+        <v>46.458333333333343</v>
       </c>
       <c r="G23">
-        <v>-0.49727541160327288</v>
+        <v>0.32031905833333341</v>
       </c>
       <c r="H23">
-        <v>-8.5847273527725462E-2</v>
-      </c>
-      <c r="K23">
-        <v>1.118779555904821E-3</v>
-      </c>
-      <c r="L23">
-        <v>5.4313279505737267E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.17304539263156329</v>
+      </c>
+      <c r="I23">
+        <v>0.26523549308928951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.15510014192405419</v>
       </c>
@@ -3571,22 +3399,19 @@
         <v>0.71306141454481775</v>
       </c>
       <c r="F24">
-        <v>0.16515673360343519</v>
+        <v>59.236111111111107</v>
       </c>
       <c r="G24">
-        <v>-0.53480353587013019</v>
+        <v>0.40841876944444439</v>
       </c>
       <c r="H24">
-        <v>-0.12277465289941759</v>
-      </c>
-      <c r="K24">
-        <v>5.7869373524706725E-4</v>
-      </c>
-      <c r="L24">
-        <v>2.2721388106349219E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.14492240770178319</v>
+      </c>
+      <c r="I24">
+        <v>0.22212996071100469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.1314175000930381</v>
       </c>
@@ -3603,22 +3428,19 @@
         <v>0.75397695719822744</v>
       </c>
       <c r="F25">
-        <v>0.14175597921328811</v>
+        <v>75.694444444444457</v>
       </c>
       <c r="G25">
-        <v>-0.56678702790500723</v>
+        <v>0.52189502777777785</v>
       </c>
       <c r="H25">
-        <v>-0.1542461577261709</v>
-      </c>
-      <c r="K25">
-        <v>2.982722195953555E-4</v>
-      </c>
-      <c r="L25">
-        <v>5.6605341942876533E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1209544827902537</v>
+      </c>
+      <c r="I25">
+        <v>0.18539310059839931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.11123387511404891</v>
       </c>
@@ -3635,22 +3457,19 @@
         <v>0.78964393053599624</v>
       </c>
       <c r="F26">
-        <v>0.1218125939184263</v>
+        <v>96.527777777777786</v>
       </c>
       <c r="G26">
-        <v>-0.59404508523478572</v>
+        <v>0.66553586111111118</v>
       </c>
       <c r="H26">
-        <v>-0.18106787193694501</v>
-      </c>
-      <c r="K26">
-        <v>1.5309050967970861E-4</v>
-      </c>
-      <c r="L26">
-        <v>1.074893878756296E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.100527724179847</v>
+      </c>
+      <c r="I26">
+        <v>0.1540839665622071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9.4032301058280088E-2</v>
       </c>
@@ -3667,22 +3486,19 @@
         <v>0.82063039728754483</v>
       </c>
       <c r="F27">
-        <v>0.1048157650817127</v>
+        <v>122.2222222222222</v>
       </c>
       <c r="G27">
-        <v>-0.61727587218523061</v>
+        <v>0.84269288888888894</v>
       </c>
       <c r="H27">
-        <v>-0.20392678374191481</v>
-      </c>
-      <c r="K27">
-        <v>7.8182266296122053E-5</v>
-      </c>
-      <c r="L27">
-        <v>1.72940646848332E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.311893852702211E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.12740063349858799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7.9372191672373194E-2</v>
       </c>
@@ -3699,22 +3515,19 @@
         <v>0.84747373975340468</v>
       </c>
       <c r="F28">
-        <v>9.0330150616901986E-2</v>
+        <v>156.25</v>
       </c>
       <c r="G28">
-        <v>-0.63707440205872246</v>
+        <v>1.0773062499999999</v>
       </c>
       <c r="H28">
-        <v>-0.22340838155483511</v>
-      </c>
-      <c r="K28">
-        <v>3.9689304620082792E-5</v>
-      </c>
-      <c r="L28">
-        <v>2.4911383617071611E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.8282232239632756E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.1046596575724893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.687805558285187E-2</v>
       </c>
@@ -3731,22 +3544,19 @@
         <v>0.87067157123698424</v>
       </c>
       <c r="F29">
-        <v>7.7984728512639309E-2</v>
+        <v>199.3055555555556</v>
       </c>
       <c r="G29">
-        <v>-0.65394777729081033</v>
+        <v>1.3741639722222221</v>
       </c>
       <c r="H29">
-        <v>-0.2400116501873284</v>
-      </c>
-      <c r="K29">
-        <v>2.0004815559754299E-5</v>
-      </c>
-      <c r="L29">
-        <v>3.3184042556672331E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.5637590743771781E-2</v>
+      </c>
+      <c r="I29">
+        <v>8.52785710778452E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5.6229878784556993E-2</v>
       </c>
@@ -3763,22 +3573,19 @@
         <v>0.89067759910562194</v>
       </c>
       <c r="F30">
-        <v>6.7463293795274784E-2</v>
+        <v>254.16666666666671</v>
       </c>
       <c r="G30">
-        <v>-0.66832817793379107</v>
+        <v>1.7524181666666669</v>
       </c>
       <c r="H30">
-        <v>-0.25416185141465841</v>
-      </c>
-      <c r="K30">
-        <v>9.9969746119219357E-6</v>
-      </c>
-      <c r="L30">
-        <v>4.172933478590885E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.4861145118859282E-2</v>
+      </c>
+      <c r="I30">
+        <v>6.8760963613084328E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.7154928078454228E-2</v>
       </c>
@@ -3795,22 +3602,19 @@
         <v>0.90790062368755642</v>
       </c>
       <c r="F31">
-        <v>5.8496359527912607E-2</v>
+        <v>324.3055555555556</v>
       </c>
       <c r="G31">
-        <v>-0.68058393114310634</v>
+        <v>2.2360089722222232</v>
       </c>
       <c r="H31">
-        <v>-0.26622141626335788</v>
-      </c>
-      <c r="K31">
-        <v>4.9443402231595778E-6</v>
-      </c>
-      <c r="L31">
-        <v>5.0231015474926071E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.56768767989777E-2</v>
+      </c>
+      <c r="I31">
+        <v>5.468376745407022E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.9420765519152967E-2</v>
       </c>
@@ -3827,22 +3631,19 @@
         <v>0.92270553743854511</v>
       </c>
       <c r="F32">
-        <v>5.0854254404883108E-2</v>
+        <v>413.19444444444451</v>
       </c>
       <c r="G32">
-        <v>-0.69102894519081681</v>
+        <v>2.8488765277777781</v>
       </c>
       <c r="H32">
-        <v>-0.27649922800635213</v>
-      </c>
-      <c r="K32">
-        <v>2.414905911803187E-6</v>
-      </c>
-      <c r="L32">
-        <v>5.8448812534954708E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.784954787184243E-2</v>
+      </c>
+      <c r="I32">
+        <v>4.2686421463003901E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.2829294950230459E-2</v>
       </c>
@@ -3859,22 +3660,19 @@
         <v>0.93541557032956402</v>
       </c>
       <c r="F33">
-        <v>4.4341240149386042E-2</v>
+        <v>527.77777777777783</v>
       </c>
       <c r="G33">
-        <v>-0.69993074964082358</v>
+        <v>3.638901111111112</v>
       </c>
       <c r="H33">
-        <v>-0.28525853363219528</v>
-      </c>
-      <c r="K33">
-        <v>1.1615722368948841E-6</v>
-      </c>
-      <c r="L33">
-        <v>6.6214725284756276E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.1178675898193462E-2</v>
+      </c>
+      <c r="I33">
+        <v>3.2461635987013258E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.7211688140463819E-2</v>
       </c>
@@ -3891,22 +3689,19 @@
         <v>0.94631526234904195</v>
       </c>
       <c r="F34">
-        <v>3.8790498042413628E-2</v>
+        <v>690.27777777777783</v>
       </c>
       <c r="G34">
-        <v>-0.70751734761993668</v>
+        <v>4.7592996111111114</v>
       </c>
       <c r="H34">
-        <v>-0.29272368642595298</v>
-      </c>
-      <c r="K34">
-        <v>5.4830466430053659E-7</v>
-      </c>
-      <c r="L34">
-        <v>7.3422888053017183E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.54933989278409E-2</v>
+      </c>
+      <c r="I34">
+        <v>2.374752220652537E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.2424060563406401E-2</v>
       </c>
@@ -3923,22 +3718,19 @@
         <v>0.95565380162301139</v>
       </c>
       <c r="F35">
-        <v>3.4059856172236377E-2</v>
+        <v>902.77777777777794</v>
       </c>
       <c r="G35">
-        <v>-0.71398305569293674</v>
+        <v>6.2244361111111113</v>
       </c>
       <c r="H35">
-        <v>-0.29908589236037397</v>
-      </c>
-      <c r="K35">
-        <v>2.5284654918901129E-7</v>
-      </c>
-      <c r="L35">
-        <v>8.0017266791320048E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.0648099189321089E-2</v>
+      </c>
+      <c r="I35">
+        <v>1.6320884341350001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.8343786063462871E-2</v>
       </c>
@@ -3955,22 +3747,19 @@
         <v>0.96364847865856196</v>
       </c>
       <c r="F36">
-        <v>3.0028147965911561E-2</v>
+        <v>1180.5555555555561</v>
       </c>
       <c r="G36">
-        <v>-0.71949348091915222</v>
+        <v>8.1396472222222229</v>
       </c>
       <c r="H36">
-        <v>-0.30450810748044888</v>
-      </c>
-      <c r="K36">
-        <v>1.132285398770213E-7</v>
-      </c>
-      <c r="L36">
-        <v>8.5979604008648135E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.5186733621316268E-3</v>
+      </c>
+      <c r="I36">
+        <v>9.9915029068369087E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.4866356015505341E-2</v>
       </c>
@@ -3987,22 +3776,19 @@
         <v>0.97048808899500449</v>
       </c>
       <c r="F37">
-        <v>2.6592108733388121E-2</v>
+        <v>1541.666666666667</v>
       </c>
       <c r="G37">
-        <v>-0.72418976256856815</v>
+        <v>10.629421666666669</v>
       </c>
       <c r="H37">
-        <v>-0.30912921171872959</v>
-      </c>
-      <c r="K37">
-        <v>4.8844775274402063E-8</v>
-      </c>
-      <c r="L37">
-        <v>9.1318797868286759E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.9993539015219879E-3</v>
+      </c>
+      <c r="I37">
+        <v>4.5972625963712844E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.190270253125914E-2</v>
       </c>
@@ -4019,19 +3805,16 @@
         <v>0.97633617651827409</v>
       </c>
       <c r="F38">
-        <v>2.3663730734970641E-2</v>
+        <v>2020.833333333333</v>
       </c>
       <c r="G38">
-        <v>-0.7281921871411251</v>
+        <v>13.933160833333339</v>
       </c>
       <c r="H38">
-        <v>-0.31306756604591129</v>
-      </c>
-      <c r="K38">
-        <v>2.0071615086076761E-8</v>
-      </c>
-      <c r="L38">
-        <v>9.6062151060531328E-3</v>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4041,43 +3824,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E2:E27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.60623672787486027</v>
+        <v>0.65655882606561511</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4086,1020 +3873,1440 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1611281381421501</v>
+        <v>0.19</v>
       </c>
       <c r="F2">
-        <v>0.13006667488754459</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H2">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I2">
+        <v>8.472222222222225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.98482543434912329</v>
+        <v>0.9895760774110689</v>
       </c>
       <c r="B3">
-        <v>0.58574342298554216</v>
+        <v>0.65314390702636527</v>
       </c>
       <c r="C3">
-        <v>0.94575227012445828</v>
+        <v>0.95360786612579096</v>
       </c>
       <c r="D3">
-        <v>1.249148603032903E-5</v>
+        <v>4.0699222475070218E-6</v>
       </c>
       <c r="E3">
-        <v>0.14213319183803391</v>
+        <v>0.18120635150633019</v>
       </c>
       <c r="F3">
-        <v>0.1472172460994908</v>
+        <v>4.0602919699348939E-6</v>
       </c>
       <c r="G3">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H3">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I3">
+        <v>9.2378382327116046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.96965086869824657</v>
+        <v>0.9791521548221378</v>
       </c>
       <c r="B4">
-        <v>0.56525011809622383</v>
+        <v>0.64972898798711554</v>
       </c>
       <c r="C4">
-        <v>0.893673007905606</v>
+        <v>0.90845893019619151</v>
       </c>
       <c r="D4">
-        <v>9.7934578235160831E-5</v>
+        <v>3.2123121352021697E-5</v>
       </c>
       <c r="E4">
-        <v>0.124818613129137</v>
+        <v>0.172647356357053</v>
       </c>
       <c r="F4">
-        <v>0.16541581081013459</v>
+        <v>3.2048949735172629E-5</v>
       </c>
       <c r="G4">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H4">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I4">
+        <v>9.9550413557472925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.95447630304736986</v>
+        <v>0.9687282322332067</v>
       </c>
       <c r="B5">
-        <v>0.54475681320690561</v>
+        <v>0.64631406894786569</v>
       </c>
       <c r="C5">
-        <v>0.84370744018682187</v>
+        <v>0.86454526562848744</v>
       </c>
       <c r="D5">
-        <v>3.2390179254078232E-4</v>
+        <v>1.069494269436325E-4</v>
       </c>
       <c r="E5">
-        <v>0.1090886544785826</v>
+        <v>0.16432154581691299</v>
       </c>
       <c r="F5">
-        <v>0.18463813265937909</v>
+        <v>1.067086309573154E-4</v>
       </c>
       <c r="G5">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H5">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I5">
+        <v>10.47717328386665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.93930173739649303</v>
+        <v>0.95830430964427549</v>
       </c>
       <c r="B6">
-        <v>0.52426350831758739</v>
+        <v>0.64289914990861596</v>
       </c>
       <c r="C6">
-        <v>0.79580134611496267</v>
+        <v>0.82185882752420159</v>
       </c>
       <c r="D6">
-        <v>7.5232482930261222E-4</v>
+        <v>2.5004953573279771E-4</v>
       </c>
       <c r="E6">
-        <v>9.4849790621763574E-2</v>
+        <v>0.15622742905052731</v>
       </c>
       <c r="F6">
-        <v>0.20485831078305361</v>
+        <v>2.4950098695241302E-4</v>
       </c>
       <c r="G6">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H6">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I6">
+        <v>10.829463346017731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.92412717174561632</v>
+        <v>0.94788038705534439</v>
       </c>
       <c r="B7">
-        <v>0.50377020342826906</v>
+        <v>0.63948423086936612</v>
       </c>
       <c r="C7">
-        <v>0.7499010602194599</v>
+        <v>0.78039144827152707</v>
       </c>
       <c r="D7">
-        <v>1.439741082085939E-3</v>
+        <v>4.8164939601937269E-4</v>
       </c>
       <c r="E7">
-        <v>8.2010747695541758E-2</v>
+        <v>0.14836349229821169</v>
       </c>
       <c r="F7">
-        <v>0.22604935554750119</v>
+        <v>4.8062069458257517E-4</v>
       </c>
       <c r="G7">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H7">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I7">
+        <v>11.151275699538971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.9089526060947396</v>
+        <v>0.93745646446641329</v>
       </c>
       <c r="B8">
-        <v>0.48327689853895089</v>
+        <v>0.63606931183011639</v>
       </c>
       <c r="C8">
-        <v>0.70595347555835231</v>
+        <v>0.74013483288209014</v>
       </c>
       <c r="D8">
-        <v>2.4375362837714899E-3</v>
+        <v>8.2071492989371135E-4</v>
       </c>
       <c r="E8">
-        <v>7.0482533890161639E-2</v>
+        <v>0.14072819800191191</v>
       </c>
       <c r="F8">
-        <v>0.24818373225048301</v>
+        <v>8.1900982022179347E-4</v>
       </c>
       <c r="G8">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H8">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I8">
+        <v>11.445236673217879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.89377804044386289</v>
+        <v>0.92703254187748219</v>
       </c>
       <c r="B9">
-        <v>0.46278359364963267</v>
+        <v>0.63265439279086655</v>
       </c>
       <c r="C9">
-        <v>0.66390604693383448</v>
+        <v>0.7010805540395364</v>
       </c>
       <c r="D9">
-        <v>3.7921832587754058E-3</v>
+        <v>1.284967111550813E-3</v>
       </c>
       <c r="E9">
-        <v>6.0178471767988677E-2</v>
+        <v>0.1333199838770027</v>
       </c>
       <c r="F9">
-        <v>0.27123387200277821</v>
+        <v>1.2823725339711979E-3</v>
       </c>
       <c r="G9">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H9">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I9">
+        <v>11.71388257328865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.87860347479298617</v>
+        <v>0.91660861928855109</v>
       </c>
       <c r="B10">
-        <v>0.4422902887603144</v>
+        <v>0.62923947375161682</v>
       </c>
       <c r="C10">
-        <v>0.6237067941800325</v>
+        <v>0.6632200468349464</v>
       </c>
       <c r="D10">
-        <v>5.5454767492369456E-3</v>
+        <v>1.8908974216945991E-3</v>
       </c>
       <c r="E10">
-        <v>5.1014232413452938E-2</v>
+        <v>0.12613726192525451</v>
       </c>
       <c r="F10">
-        <v>0.29517264893687289</v>
+        <v>1.8871901938376061E-3</v>
       </c>
       <c r="G10">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H10">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I10">
+        <v>11.95974970598545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.86342890914210946</v>
+        <v>0.90618469669961998</v>
       </c>
       <c r="B11">
-        <v>0.42179698387099618</v>
+        <v>0.62582455471236698</v>
       </c>
       <c r="C11">
-        <v>0.58530430552587853</v>
+        <v>0.62654460316127347</v>
       </c>
       <c r="D11">
-        <v>7.7347642820428429E-3</v>
+        <v>2.6537836997433E-3</v>
       </c>
       <c r="E11">
-        <v>4.290787160270549E-2</v>
+        <v>0.11917841738373559</v>
       </c>
       <c r="F11">
-        <v>0.31997382281125109</v>
+        <v>2.6487368213039121E-3</v>
       </c>
       <c r="G11">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H11">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I11">
+        <v>12.185374377542461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.84825434349123263</v>
+        <v>0.89576077411068888</v>
       </c>
       <c r="B12">
-        <v>0.40130367898167801</v>
+        <v>0.62240963567311725</v>
       </c>
       <c r="C12">
-        <v>0.54864774103611924</v>
+        <v>0.59104536573577526</v>
       </c>
       <c r="D12">
-        <v>1.0393173042521679E-2</v>
+        <v>3.587706417484638E-3</v>
       </c>
       <c r="E12">
-        <v>3.577986821043936E-2</v>
+        <v>0.1124418076038092</v>
       </c>
       <c r="F12">
-        <v>0.34561244598899082</v>
+        <v>3.5810949916364109E-3</v>
       </c>
       <c r="G12">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H12">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I12">
+        <v>12.393292894193859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.83307977784035603</v>
+        <v>0.88533685152175767</v>
       </c>
       <c r="B13">
-        <v>0.38081037409235979</v>
+        <v>0.6189947166338674</v>
       </c>
       <c r="C13">
-        <v>0.51368683613367383</v>
+        <v>0.5567133217157344</v>
       </c>
       <c r="D13">
-        <v>1.354983271955067E-2</v>
+        <v>4.7055654000008754E-3</v>
       </c>
       <c r="E13">
-        <v>2.9553165106324959E-2</v>
+        <v>0.10592576085369559</v>
       </c>
       <c r="F13">
-        <v>0.37206523366501942</v>
+        <v>4.6971721644222392E-3</v>
       </c>
       <c r="G13">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H13">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I13">
+        <v>12.58604156217384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.8179052121894792</v>
+        <v>0.87491292893282657</v>
       </c>
       <c r="B14">
-        <v>0.36031706920304152</v>
+        <v>0.61557979759461756</v>
       </c>
       <c r="C14">
-        <v>0.48037190520673939</v>
+        <v>0.52353929586854575</v>
       </c>
       <c r="D14">
-        <v>1.7230094285667741E-2</v>
+        <v>6.0190970221249713E-3</v>
       </c>
       <c r="E14">
-        <v>2.4153212836190371E-2</v>
+        <v>9.9628575037271599E-2</v>
       </c>
       <c r="F14">
-        <v>0.39931089609422021</v>
+        <v>6.008717482245407E-3</v>
       </c>
       <c r="G14">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H14">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I14">
+        <v>12.76615668771657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.80273064653860249</v>
+        <v>0.86448900634389547</v>
       </c>
       <c r="B15">
-        <v>0.3398237643137233</v>
+        <v>0.61216487855536783</v>
       </c>
       <c r="C15">
-        <v>0.44865384530426811</v>
+        <v>0.49151394325238329</v>
       </c>
       <c r="D15">
-        <v>2.1455744674566891E-2</v>
+        <v>7.5388919114421568E-3</v>
       </c>
       <c r="E15">
-        <v>1.9508016435642869E-2</v>
+        <v>9.3548516320864486E-2</v>
       </c>
       <c r="F15">
-        <v>0.42733043142819938</v>
+        <v>7.5263390681344321E-3</v>
       </c>
       <c r="G15">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H15">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I15">
+        <v>12.93617457705623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.78755608088772577</v>
+        <v>0.85406508375496437</v>
       </c>
       <c r="B16">
-        <v>0.31933045942440502</v>
+        <v>0.60874995951611799</v>
       </c>
       <c r="C16">
-        <v>0.41848413992363598</v>
+        <v>0.46062774135804391</v>
       </c>
       <c r="D16">
-        <v>2.6245217317073681E-2</v>
+        <v>9.2744131919669393E-3</v>
       </c>
       <c r="E16">
-        <v>1.5548185789238901E-2</v>
+        <v>8.7683817658738436E-2</v>
       </c>
       <c r="F16">
-        <v>0.45610737759631798</v>
+        <v>9.2595218554983299E-3</v>
       </c>
       <c r="G16">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H16">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I16">
+        <v>13.098631536427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.77238151523684906</v>
+        <v>0.84364116116603327</v>
       </c>
       <c r="B17">
-        <v>0.29883715453508691</v>
+        <v>0.60533504047686826</v>
       </c>
       <c r="C17">
-        <v>0.38981486289459438</v>
+        <v>0.43087098165605697</v>
       </c>
       <c r="D17">
-        <v>3.1613798495339483E-2</v>
+        <v>1.123401530616378E-2</v>
       </c>
       <c r="E17">
-        <v>1.220699003067675E-2</v>
+        <v>8.2032677206744342E-2</v>
       </c>
       <c r="F17">
-        <v>0.48562802145881689</v>
+        <v>1.1216645987770529E-2</v>
       </c>
       <c r="G17">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H17">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I17">
+        <v>13.25606387206307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.75720694958597234</v>
+        <v>0.83321723857710217</v>
       </c>
       <c r="B18">
-        <v>0.27834384964576869</v>
+        <v>0.60192012143761842</v>
       </c>
       <c r="C18">
-        <v>0.36259868236383319</v>
+        <v>0.40223376048554871</v>
       </c>
       <c r="D18">
-        <v>3.7573829473556683E-2</v>
+        <v>1.342496345701423E-2</v>
       </c>
       <c r="E18">
-        <v>9.4204165845522287E-3</v>
+        <v>7.6593256612171548E-2</v>
       </c>
       <c r="F18">
-        <v>0.51588156320619882</v>
+        <v>1.3405005828975049E-2</v>
       </c>
       <c r="G18">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H18">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I18">
+        <v>13.41100789019861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.74203238393509552</v>
+        <v>0.82279331598817107</v>
       </c>
       <c r="B19">
-        <v>0.25785054475645031</v>
+        <v>0.59850520239836869</v>
       </c>
       <c r="C19">
-        <v>0.3367888648847831</v>
+        <v>0.37470596921249072</v>
       </c>
       <c r="D19">
-        <v>4.4134904361972822E-2</v>
+        <v>1.5853453716450229E-2</v>
       </c>
       <c r="E19">
-        <v>7.1272355862216667E-3</v>
+        <v>7.1363679166168592E-2</v>
       </c>
       <c r="F19">
-        <v>0.54686023366495307</v>
+        <v>1.583082963100171E-2</v>
       </c>
       <c r="G19">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H19">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I19">
+        <v>13.565999897067799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.72685781828421892</v>
+        <v>0.81236939339923997</v>
       </c>
       <c r="B20">
-        <v>0.2373572398671322</v>
+        <v>0.59509028335911884</v>
       </c>
       <c r="C20">
-        <v>0.31233927961758928</v>
+        <v>0.3482772835745272</v>
       </c>
       <c r="D20">
-        <v>5.1304063669362639E-2</v>
+        <v>1.852463385178206E-2</v>
       </c>
       <c r="E20">
-        <v>5.2690705952903177E-3</v>
+        <v>6.6342027803131878E-2</v>
       </c>
       <c r="F20">
-        <v>0.57855936177474199</v>
+        <v>1.849929990863548E-2</v>
       </c>
       <c r="G20">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H20">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I20">
+        <v>13.72357619890483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.71168325263334209</v>
+        <v>0.80194547081030876</v>
       </c>
       <c r="B21">
-        <v>0.21686393497781389</v>
+        <v>0.59167536431986911</v>
       </c>
       <c r="C21">
-        <v>0.28920440264451969</v>
+        <v>0.32293715211727758</v>
       </c>
       <c r="D21">
-        <v>5.9085983497397257E-2</v>
+        <v>2.14426249278779E-2</v>
       </c>
       <c r="E21">
-        <v>3.7904767582378641E-3</v>
+        <v>6.1526342929142372E-2</v>
       </c>
       <c r="F21">
-        <v>0.61097738899648446</v>
+        <v>2.1414574579457221E-2</v>
       </c>
       <c r="G21">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H21">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I21">
+        <v>13.881045398727959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.69650868698246537</v>
+        <v>0.79152154822137766</v>
       </c>
       <c r="B22">
-        <v>0.19637063008849559</v>
+        <v>0.58826044528061927</v>
       </c>
       <c r="C22">
-        <v>0.26733932140645011</v>
+        <v>0.29867478361241689</v>
       </c>
       <c r="D22">
-        <v>6.7483160328513897E-2</v>
+        <v>2.461054374996377E-2</v>
       </c>
       <c r="E22">
-        <v>2.6390279045431049E-3</v>
+        <v>5.6914620058774942E-2</v>
       </c>
       <c r="F22">
-        <v>0.64411582674976264</v>
+        <v>2.4579808932780511E-2</v>
       </c>
       <c r="G22">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H22">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I22">
+        <v>14.030305828816999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.68133412133158866</v>
+        <v>0.78109762563244656</v>
       </c>
       <c r="B23">
-        <v>0.17587732519917751</v>
+        <v>0.58484552624136943</v>
       </c>
       <c r="C23">
-        <v>0.2466997392664512</v>
+        <v>0.27547913333043073</v>
       </c>
       <c r="D23">
-        <v>7.6496091356939133E-2</v>
+        <v>2.803052622020593E-2</v>
       </c>
       <c r="E23">
-        <v>1.7654145227397439E-3</v>
+        <v>5.2504807236322587E-2</v>
       </c>
       <c r="F23">
-        <v>0.67797915209285275</v>
+        <v>2.7997178500008931E-2</v>
       </c>
       <c r="G23">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H23">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I23">
+        <v>14.1717842955869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.66615955568071195</v>
+        <v>0.77067370304351546</v>
       </c>
       <c r="B24">
-        <v>0.15538402030985929</v>
+        <v>0.5814306072021197</v>
       </c>
       <c r="C24">
-        <v>0.2272419802069586</v>
+        <v>0.2533388880200777</v>
       </c>
       <c r="D24">
-        <v>8.6123450310426342E-2</v>
+        <v>3.1703751690961741E-2</v>
       </c>
       <c r="E24">
-        <v>1.123555231613939E-3</v>
+        <v>4.8294802213537928E-2</v>
       </c>
       <c r="F24">
-        <v>0.71257463563895818</v>
+        <v>3.1667902908439217E-2</v>
       </c>
       <c r="G24">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H24">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I24">
+        <v>14.30610303936831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.65098499002983523</v>
+        <v>0.76024978045458436</v>
       </c>
       <c r="B25">
-        <v>0.13489071542054101</v>
+        <v>0.57801568816286986</v>
       </c>
       <c r="C25">
-        <v>0.2089229936674733</v>
+        <v>0.23224244942140679</v>
       </c>
       <c r="D25">
-        <v>9.6362258708036747E-2</v>
+        <v>3.5630468409053817E-2</v>
       </c>
       <c r="E25">
-        <v>6.7072536463015447E-4</v>
+        <v>4.4282449351241281E-2</v>
       </c>
       <c r="F25">
-        <v>0.74791209396272718</v>
+        <v>3.5592270811908099E-2</v>
       </c>
       <c r="G25">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H25">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I25">
+        <v>14.43388430049187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.63581042437895841</v>
+        <v>0.74982585786565314</v>
       </c>
       <c r="B26">
-        <v>0.1143974105312227</v>
+        <v>0.57460076912362013</v>
       </c>
       <c r="C26">
-        <v>0.1917003595302747</v>
+        <v>0.212177916108613</v>
       </c>
       <c r="D26">
-        <v>0.1072080524968977</v>
+        <v>3.9810020159031921E-2</v>
       </c>
       <c r="E26">
-        <v>3.6770785604510567E-4</v>
+        <v>4.0465536206373109E-2</v>
       </c>
       <c r="F26">
-        <v>0.78400355616365236</v>
+        <v>3.9769666005179317E-2</v>
       </c>
       <c r="G26">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H26">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I26">
+        <v>14.55575031928822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.6206358587280818</v>
+        <v>0.73940193527672204</v>
       </c>
       <c r="B27">
-        <v>9.3904105641904656E-2</v>
+        <v>0.57118585008437028</v>
       </c>
       <c r="C27">
-        <v>0.17553229326220871</v>
+        <v>0.1931330634216297</v>
       </c>
       <c r="D27">
-        <v>0.11865504400830131</v>
+        <v>4.4240874229647183E-2</v>
       </c>
       <c r="E27">
-        <v>1.7897421297193299E-4</v>
+        <v>3.6841789759008738E-2</v>
       </c>
       <c r="F27">
-        <v>0.82086283019520934</v>
+        <v>4.419859484510015E-2</v>
       </c>
       <c r="G27">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H27">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I27">
+        <v>14.67232333608802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.60546129307720498</v>
+        <v>0.72897801268779094</v>
       </c>
       <c r="B28">
-        <v>7.34108007525862E-2</v>
+        <v>0.56777093104512055</v>
       </c>
       <c r="C28">
-        <v>0.1603776512212477</v>
+        <v>0.175095321199323</v>
       </c>
       <c r="D28">
-        <v>0.1306962791707415</v>
+        <v>4.8920650847328162E-2</v>
       </c>
       <c r="E28">
-        <v>7.290795968599224E-5</v>
+        <v>3.3408872225157878E-2</v>
       </c>
       <c r="F28">
-        <v>0.85850494775406605</v>
+        <v>4.8876715120971102E-2</v>
       </c>
       <c r="G28">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H28">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I28">
+        <v>14.78422559122192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.59028672742632826</v>
+        <v>0.71855409009885984</v>
       </c>
       <c r="B29">
-        <v>5.2917495863268042E-2</v>
+        <v>0.56435601200587071</v>
       </c>
       <c r="C29">
-        <v>0.14619593613723961</v>
+        <v>0.158051748969991</v>
       </c>
       <c r="D29">
-        <v>0.14332378991450409</v>
+        <v>5.3846154244174188E-2</v>
       </c>
       <c r="E29">
-        <v>2.2091910929797368E-5</v>
+        <v>3.0164376390372168E-2</v>
       </c>
       <c r="F29">
-        <v>0.89694545396505898</v>
+        <v>5.3800866540124573E-2</v>
       </c>
       <c r="G29">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H29">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I29">
+        <v>14.892079325020561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.57511216177545155</v>
+        <v>0.70813016750992874</v>
       </c>
       <c r="B30">
-        <v>3.2424190973949878E-2</v>
+        <v>0.56094109296662098</v>
       </c>
       <c r="C30">
-        <v>0.1329473027770332</v>
+        <v>0.1419890081832946</v>
       </c>
       <c r="D30">
-        <v>0.15652874169920911</v>
+        <v>5.9013405556994643E-2</v>
       </c>
       <c r="E30">
-        <v>3.70070325565899E-6</v>
+        <v>2.7105820385657849E-2</v>
       </c>
       <c r="F30">
-        <v>0.93619948160312438</v>
+        <v>5.8967103023514711E-2</v>
       </c>
       <c r="G30">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H30">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I30">
+        <v>14.99650677781459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.55993759612457483</v>
+        <v>0.69770624492099764</v>
       </c>
       <c r="B31">
-        <v>1.1930886084631571E-2</v>
+        <v>0.55752617392737114</v>
       </c>
       <c r="C31">
-        <v>0.12059256380505309</v>
+        <v>0.12689333097726779</v>
       </c>
       <c r="D31">
-        <v>0.1703015760922133</v>
+        <v>6.4417677789727165E-2</v>
       </c>
       <c r="E31">
-        <v>9.6498454914679501E-8</v>
+        <v>2.4230641810089059E-2</v>
       </c>
       <c r="F31">
-        <v>0.97628047966393439</v>
+        <v>6.4370727041681994E-2</v>
       </c>
       <c r="G31">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H31">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I31">
+        <v>15.098130189934651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.54476303047369812</v>
+        <v>0.68728232233206654</v>
       </c>
       <c r="B32">
-        <v>-8.5624188046865852E-3</v>
+        <v>0.5541112548881213</v>
       </c>
       <c r="C32">
-        <v>0.10909319585135931</v>
+        <v>0.11275048485853</v>
       </c>
       <c r="D32">
-        <v>0.1846321483220047</v>
+        <v>7.0053533116191016E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.153619108267606E-2</v>
+      </c>
+      <c r="F32">
+        <v>7.0006326265786789E-2</v>
       </c>
       <c r="G32">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H32">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I32">
+        <v>15.197571801711391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.52958846482282129</v>
+        <v>0.67685839974313544</v>
       </c>
       <c r="B33">
-        <v>-2.905572369400489E-2</v>
+        <v>0.55069633584887157</v>
       </c>
       <c r="C33">
-        <v>9.841134580031867E-2</v>
+        <v>9.9545732524668487E-2</v>
       </c>
       <c r="D33">
-        <v>0.19950985972660329</v>
+        <v>7.5914862856352447E-2</v>
+      </c>
+      <c r="E33">
+        <v>1.901972387783598E-2</v>
+      </c>
+      <c r="F33">
+        <v>7.5867812864278877E-2</v>
       </c>
       <c r="G33">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H33">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I33">
+        <v>15.295453853475459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.51441389917194469</v>
+        <v>0.66643447715420434</v>
       </c>
       <c r="B34">
-        <v>-4.9549028583323051E-2</v>
+        <v>0.54728141680962172</v>
       </c>
       <c r="C34">
-        <v>8.8509837314227027E-2</v>
+        <v>8.72637858628382E-2</v>
       </c>
       <c r="D34">
-        <v>0.21492378501249829</v>
+        <v>8.1994930530958368E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.667839246194372E-2</v>
+      </c>
+      <c r="F34">
+        <v>8.1948465847025892E-2</v>
       </c>
       <c r="G34">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H34">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I34">
+        <v>15.39239858555751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.49923933352106792</v>
+        <v>0.65601055456527324</v>
       </c>
       <c r="B35">
-        <v>-7.0042333472641355E-2</v>
+        <v>0.54386649777037199</v>
       </c>
       <c r="C35">
-        <v>7.9352177607589419E-2</v>
+        <v>7.5888752900485273E-2</v>
       </c>
       <c r="D35">
-        <v>0.23086279423475001</v>
+        <v>8.8286418491988664E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.450923569959681E-2</v>
+      </c>
+      <c r="F35">
+        <v>8.8240976950802893E-2</v>
       </c>
       <c r="G35">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H35">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I35">
+        <v>15.48902823828818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.48406476787019109</v>
+        <v>0.64558663197634203</v>
       </c>
       <c r="B36">
-        <v>-9.053563836195952E-2</v>
+        <v>0.54045157873112215</v>
       </c>
       <c r="C36">
-        <v>7.090256448930847E-2</v>
+        <v>6.5404076137139805E-2</v>
       </c>
       <c r="D36">
-        <v>0.24731566940349889</v>
+        <v>9.4781478747734571E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.250916743256072E-2</v>
+      </c>
+      <c r="F36">
+        <v>9.4737500680769832E-2</v>
       </c>
       <c r="G36">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H36">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I36">
+        <v>15.58596505199813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.46889020221931438</v>
+        <v>0.63516270938741093</v>
       </c>
       <c r="B37">
-        <v>-0.1110289432512778</v>
+        <v>0.53703665969187242</v>
       </c>
       <c r="C37">
-        <v>6.3125893691768797E-2</v>
+        <v>5.579246021217648E-2</v>
       </c>
       <c r="D37">
-        <v>0.2642712156162193</v>
+        <v>0.10147178876296099</v>
+      </c>
+      <c r="E37">
+        <v>1.067496284461256E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.1014297092834317</v>
       </c>
       <c r="G37">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H37">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I37">
+        <v>15.683831267018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.45371563656843772</v>
+        <v>0.62473878679847983</v>
       </c>
       <c r="B38">
-        <v>-0.13152224814059599</v>
+        <v>0.53362174065262258</v>
       </c>
       <c r="C38">
-        <v>5.598776650779004E-2</v>
+        <v>4.7035786203741867E-2</v>
       </c>
       <c r="D38">
-        <v>0.28171836660851329</v>
+        <v>0.1083486132338662</v>
+      </c>
+      <c r="E38">
+        <v>9.0032423005624723E-3</v>
+      </c>
+      <c r="F38">
+        <v>0.1083088536448546</v>
       </c>
       <c r="G38">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H38">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I38">
+        <v>15.783249123678431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.438541070917561</v>
+        <v>0.61431486420954873</v>
       </c>
       <c r="B39">
-        <v>-0.15201555302991421</v>
+        <v>0.53020682161337285</v>
       </c>
       <c r="C39">
-        <v>4.9454497758671993E-2</v>
+        <v>3.9115008916781463E-2</v>
       </c>
       <c r="D39">
-        <v>0.29964628460902171</v>
+        <v>0.1154028731410849</v>
+      </c>
+      <c r="E39">
+        <v>7.4904519701649939E-3</v>
+      </c>
+      <c r="F39">
+        <v>0.11536583141021731</v>
       </c>
       <c r="G39">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H39">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I39">
+        <v>15.884840862310069</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.42336650526668429</v>
+        <v>0.60389094162061752</v>
       </c>
       <c r="B40">
-        <v>-0.1725088579192324</v>
+        <v>0.52679190257412301</v>
       </c>
       <c r="C40">
-        <v>4.3493124119138131E-2</v>
+        <v>3.2010032154762232E-2</v>
       </c>
       <c r="D40">
-        <v>0.31804445437598272</v>
+        <v>0.1226252238140783</v>
+      </c>
+      <c r="E40">
+        <v>6.1328402892482283E-3</v>
+      </c>
+      <c r="F40">
+        <v>0.1225912640493213</v>
       </c>
       <c r="G40">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H40">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I40">
+        <v>15.989228723243579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.40819193961580758</v>
+        <v>0.59346701903168642</v>
       </c>
       <c r="B41">
-        <v>-0.19300216280855059</v>
+        <v>0.52337698353487316</v>
       </c>
       <c r="C41">
-        <v>3.8071412827949021E-2</v>
+        <v>2.5699554932343389E-2</v>
       </c>
       <c r="D41">
-        <v>0.33690277128400781</v>
+        <v>0.13000614436617061</v>
+      </c>
+      <c r="E41">
+        <v>4.9264289241095589E-3</v>
+      </c>
+      <c r="F41">
+        <v>0.12997558521663821</v>
       </c>
       <c r="G41">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H41">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I41">
+        <v>16.09703494680959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.39301737396493069</v>
+        <v>0.58304309644275532</v>
       </c>
       <c r="B42">
-        <v>-0.2134954676978689</v>
+        <v>0.51996206449562343</v>
       </c>
       <c r="C42">
-        <v>3.3157870816381593E-2</v>
+        <v>2.016087844487573E-2</v>
       </c>
       <c r="D42">
-        <v>0.35621162331958822</v>
+        <v>0.1375360417990833</v>
+      </c>
+      <c r="E42">
+        <v>3.866976309366027E-3</v>
+      </c>
+      <c r="F42">
+        <v>0.13750914369157641</v>
       </c>
       <c r="G42">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H42">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I42">
+        <v>16.208881773338749</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.37784280831405398</v>
+        <v>0.57261917385382421</v>
       </c>
       <c r="B43">
-        <v>-0.23398877258718709</v>
+        <v>0.5165471454563737</v>
       </c>
       <c r="C43">
-        <v>2.8721754290743851E-2</v>
+        <v>1.536965858562292E-2</v>
       </c>
       <c r="D43">
-        <v>0.37596196683253102</v>
+        <v>0.1452053745385698</v>
+      </c>
+      <c r="E43">
+        <v>2.9499308758488868E-3</v>
+      </c>
+      <c r="F43">
+        <v>0.1451823256443345</v>
       </c>
       <c r="G43">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H43">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I43">
+        <v>16.32539144316172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.36266824266317732</v>
+        <v>0.56219525126489311</v>
       </c>
       <c r="B44">
-        <v>-0.25448207747650542</v>
+        <v>0.51313222641712386</v>
       </c>
       <c r="C44">
-        <v>2.4733078809728359E-2</v>
+        <v>1.129958040340414E-2</v>
       </c>
       <c r="D44">
-        <v>0.39614539587772751</v>
+        <v>0.15300480254115501</v>
+      </c>
+      <c r="E44">
+        <v>2.1703694905678122E-3</v>
+      </c>
+      <c r="F44">
+        <v>0.1529857033475138</v>
       </c>
       <c r="G44">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H44">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I44">
+        <v>16.447186196609142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.34749367701230061</v>
+        <v>0.55177132867596201</v>
       </c>
       <c r="B45">
-        <v>-0.27497538236582347</v>
+        <v>0.50971730737787402</v>
       </c>
       <c r="C45">
-        <v>2.1162629902845939E-2</v>
+        <v>7.921916089632863E-3</v>
       </c>
       <c r="D45">
-        <v>0.41675420496708993</v>
+        <v>0.160925375189126</v>
+      </c>
+      <c r="E45">
+        <v>1.522913818366522E-3</v>
+      </c>
+      <c r="F45">
+        <v>0.16091022152728551</v>
       </c>
       <c r="G45">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H45">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I45">
+        <v>16.574888274011649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.33231911136142389</v>
+        <v>0.54134740608703091</v>
       </c>
       <c r="B46">
-        <v>-0.2954686872551418</v>
+        <v>0.50630238833862429</v>
       </c>
       <c r="C46">
-        <v>1.7981974282596531E-2</v>
+        <v>5.2049001995136748E-3</v>
       </c>
       <c r="D46">
-        <v>0.43778144503484517</v>
+        <v>0.16895877565568571</v>
+      </c>
+      <c r="E46">
+        <v>1.001612014015987E-3</v>
+      </c>
+      <c r="F46">
+        <v>0.16894744001164561</v>
       </c>
       <c r="G46">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H46">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I46">
+        <v>16.709119915699912</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.31714454571054718</v>
+        <v>0.53092348349809981</v>
       </c>
       <c r="B47">
-        <v>-0.31596199214446002</v>
+        <v>0.50288746929937445</v>
       </c>
       <c r="C47">
-        <v>1.516347171065866E-2</v>
+        <v>3.1127986165272979E-3</v>
       </c>
       <c r="D47">
-        <v>0.45922097240021098</v>
+        <v>0.1770976552962108</v>
+      </c>
+      <c r="E47">
+        <v>5.9976227228346769E-4</v>
+      </c>
+      <c r="F47">
+        <v>0.17708986621752881</v>
       </c>
       <c r="G47">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H47">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I47">
+        <v>16.850503362004559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.30196998005967052</v>
+        <v>0.52049956090916871</v>
       </c>
       <c r="B48">
-        <v>-0.33645529703377819</v>
+        <v>0.49947255026012471</v>
       </c>
       <c r="C48">
-        <v>1.2680287587501201E-2</v>
+        <v>1.604416214366749E-3</v>
       </c>
       <c r="D48">
-        <v>0.481067490489267</v>
+        <v>0.18533612482744999</v>
+      </c>
+      <c r="E48">
+        <v>3.0962971358864712E-4</v>
+      </c>
+      <c r="F48">
+        <v>0.18533144427932621</v>
       </c>
       <c r="G48">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H48">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I48">
+        <v>16.999660853256241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.28679541440879358</v>
+        <v>0.51007563832023761</v>
       </c>
       <c r="B49">
-        <v>-0.35694860192309658</v>
+        <v>0.49605763122087487</v>
       </c>
       <c r="C49">
-        <v>1.0506406345822349E-2</v>
+        <v>6.3043139007121544E-4</v>
       </c>
       <c r="D49">
-        <v>0.50331658405191826</v>
+        <v>0.19367055634941011</v>
+      </c>
+      <c r="E49">
+        <v>1.219400719520638E-4</v>
+      </c>
+      <c r="F49">
+        <v>0.19366835516199801</v>
       </c>
       <c r="G49">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H49">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I49">
+        <v>17.15721462978561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.27162084875791692</v>
+        <v>0.4996517157313064</v>
       </c>
       <c r="B50">
-        <v>-0.3774419068124148</v>
+        <v>0.49264271218162509</v>
       </c>
       <c r="C50">
-        <v>8.6166457416009014E-3</v>
+        <v>1.2768051729299511E-4</v>
       </c>
       <c r="D50">
-        <v>0.52596474557935102</v>
+        <v>0.20210114953087441</v>
+      </c>
+      <c r="E50">
+        <v>2.4792124871513631E-5</v>
+      </c>
+      <c r="F50">
+        <v>0.20210058269605069</v>
       </c>
       <c r="G50">
-        <v>0.75540839028082274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H50">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I50">
+        <v>17.323786931923319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.25644628310704021</v>
+        <v>0.4892277931423753</v>
       </c>
       <c r="B51">
-        <v>-0.39793521170173302</v>
+        <v>0.4892277931423753</v>
       </c>
       <c r="C51">
-        <v>6.9866721529689528E-3</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0.54900939359117362</v>
+        <v>0.21063664246961611</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0.21063664246961611</v>
       </c>
       <c r="G51">
-        <v>0.75540839028082274</v>
+        <v>1.5339764642108551</v>
+      </c>
+      <c r="H51">
+        <v>1.5405727503368689</v>
+      </c>
+      <c r="I51">
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -5108,6 +5315,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CB7B5A94B3B66459EB2A158AFFC5DBC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ab064ae1c06d5d5cb1b59fac93aef9e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xmlns:ns3="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c0cefaab21e83ce2f7997d16a1f1916" ns2:_="" ns3:_="">
     <xsd:import namespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
@@ -5385,36 +5601,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" xsi:nil="true"/>
-    <Project_x0020_Type xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">Enter Choice #1</Project_x0020_Type>
-    <Project_x0020_Name xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F955C1DE-C506-45B9-9E64-C4849F43C5B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B9F42DA-47B4-4AAD-9C90-003BBE1D7074}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655F41AB-2B35-457E-B7BE-26CDF530BD5C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3645F2-8B81-4380-A09F-CF000A347A77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C773B85-8057-4040-84F7-119DDCC5CE27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
+    <ds:schemaRef ds:uri="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>